--- a/Downer/36560/zres_siteapp_NEW.xlsx
+++ b/Downer/36560/zres_siteapp_NEW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\36560\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F9BBF-5727-4518-952D-1A40DA7B2B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2654A102-2694-4831-9C19-544F179F6600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="330" windowWidth="28890" windowHeight="19710" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
+    <workbookView xWindow="9180" yWindow="2595" windowWidth="26775" windowHeight="17745" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
   </bookViews>
   <sheets>
     <sheet name="zres_siteapp_NEW" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="269">
   <si>
     <t>Id</t>
   </si>
@@ -41,13 +41,799 @@
   </si>
   <si>
     <t>Postfix</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>ITP-4003 - DN750 WC main WCMH-5 to WCMH-4</t>
+  </si>
+  <si>
+    <t>itp</t>
+  </si>
+  <si>
+    <t>59b9401e-e477-4206-8eed-a125cb4292ae</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>SECTION 3 - RECEIVING INSPECTIONS</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>3.1 - Material Delivery</t>
+  </si>
+  <si>
+    <t>fd6945ee-161e-528f-a7ba-18671463b1f4</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Inspect for damage and wear, Confirm items are correct as per drawings and Specifications</t>
+  </si>
+  <si>
+    <t>30500143-ffbe-5e6f-b61b-3f02c8de8a97</t>
+  </si>
+  <si>
+    <t>25a84a91-46b6-5297-bd5a-7c2e359cc295</t>
+  </si>
+  <si>
+    <t>○ Items are approved as per contract specification</t>
+  </si>
+  <si>
+    <t>872e47c9-deec-5ace-9b6e-bf29fab0b698</t>
+  </si>
+  <si>
+    <t>○ DCC approved</t>
+  </si>
+  <si>
+    <t>4cbd8926-a97c-5e69-9c28-12c208e9b94e</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photos, delivery docket, MDD results for backfill materials (if required)</t>
+  </si>
+  <si>
+    <t>c638e561-52bc-5cc6-940d-97426bc3270f</t>
+  </si>
+  <si>
+    <t>Frequency - On Delivery</t>
+  </si>
+  <si>
+    <t>32412e66-96ea-5503-a4bd-fd012de17507</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual</t>
+  </si>
+  <si>
+    <t>0e3de0f6-fbf7-5689-9c59-a9a488b72514</t>
+  </si>
+  <si>
+    <t>Inspection: Key - C</t>
+  </si>
+  <si>
+    <t>37a5d4d0-ae36-5598-b6ae-d0c128a6a6e6</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - SV/QE</t>
+  </si>
+  <si>
+    <t>3.2 - Set out</t>
+  </si>
+  <si>
+    <t>1d025ba7-84f8-5a68-80aa-f546c3e476fe</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Set out completed by an approved surveyor marked allignment</t>
+  </si>
+  <si>
+    <t>a18a71b7-f5b3-55da-9a42-315f8a3fb085</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Allignment set out matches drawings or aggreed by the Engineer</t>
+  </si>
+  <si>
+    <t>c438f1ca-ca49-573a-a728-98d9b23df8fc</t>
+  </si>
+  <si>
+    <t>Verifying Document - Survey marks, photos</t>
+  </si>
+  <si>
+    <t>145385a7-3c62-5568-8c18-f5d74aebe421</t>
+  </si>
+  <si>
+    <t>Frequency - Prior to commencement of works</t>
+  </si>
+  <si>
+    <t>b53b2af4-9ec3-5597-820f-1b1844e48c44</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual, Instrumental</t>
+  </si>
+  <si>
+    <t>907002a6-abe7-5234-a401-c5411967045c</t>
+  </si>
+  <si>
+    <t>Inspection: Key - H</t>
+  </si>
+  <si>
+    <t>5170a963-0ce3-5629-898f-7773978a3e51</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - SV/SP/QE/PE</t>
+  </si>
+  <si>
+    <t>signoff</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>SECTION 4 - IN-PROCESS INSPECTIONS</t>
+  </si>
+  <si>
+    <t>4.1 - Trench Excavation</t>
+  </si>
+  <si>
+    <t>876c492a-569c-5cad-af49-b1f4a14d0982</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Excavate to achieve required depth to invert as per C4200</t>
+  </si>
+  <si>
+    <t>f726ae62-5fc4-55d1-b510-9bdece611fba</t>
+  </si>
+  <si>
+    <t>○ Trench width to allow for 300mm seperation between springline of the pipe and trench wall or an adjacent pipe</t>
+  </si>
+  <si>
+    <t>2e968e45-52fd-5eca-91d4-f9f0f9cdbd9b</t>
+  </si>
+  <si>
+    <t>○ Floor of Trench to be even across width and length</t>
+  </si>
+  <si>
+    <t>3b577317-9241-5e89-8610-01d9fe1b0b35</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Allow 100mm for bedding</t>
+  </si>
+  <si>
+    <t>06794c26-132e-5aee-8dc1-d514aead8a3c</t>
+  </si>
+  <si>
+    <t>○ Allow for minimum cover of 750mm.</t>
+  </si>
+  <si>
+    <t>57e0e33f-08ae-5ce0-84ca-228614e7049f</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photos, measurement checks</t>
+  </si>
+  <si>
+    <t>1cb1a6e3-29a6-59ac-8117-1e241067659e</t>
+  </si>
+  <si>
+    <t>Frequency - During Installation</t>
+  </si>
+  <si>
+    <t>13749fcb-6ec8-5dcb-8f20-5c27a7ca0a79</t>
+  </si>
+  <si>
+    <t>58cbc2ee-2495-5961-9a85-2385c3b78aff</t>
+  </si>
+  <si>
+    <t>1bf9adb5-fc40-5a40-af5c-8530adc1e7da</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - SP/QE/CM</t>
+  </si>
+  <si>
+    <t>4.2 - Geotextile</t>
+  </si>
+  <si>
+    <t>a01e27da-3e23-5b0d-8e39-cde180bf65b8</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Install Bidim A29 or approved equivalient around bedding, haunch, overlay zone and trench fill up to the subbase.</t>
+  </si>
+  <si>
+    <t>a4e4ff19-b865-52d0-a713-267a182ce132</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Geotextile not damged during pipe installation and backfilling</t>
+  </si>
+  <si>
+    <t>0864ed3d-5d0b-55f7-9d86-da2dedd9d448</t>
+  </si>
+  <si>
+    <t>Verifying Document - photos</t>
+  </si>
+  <si>
+    <t>f865fed2-061a-549e-b998-657a685eb152</t>
+  </si>
+  <si>
+    <t>9d442d0d-e9cf-5a89-a5f9-0bccfa4ca9f2</t>
+  </si>
+  <si>
+    <t>3c852204-1ad1-5825-8b23-c8338d5c19b8</t>
+  </si>
+  <si>
+    <t>fb694baf-9510-5682-9be8-cd6c79bb6041</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - SP/QE</t>
+  </si>
+  <si>
+    <t>4.3 - Foundation</t>
+  </si>
+  <si>
+    <t>6c32f554-45a8-5982-b71d-dca3d103fcb3</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Scala tests on base of trench</t>
+  </si>
+  <si>
+    <t>5ec6f3c9-66ec-5521-8443-fe515516bc0d</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - minimum of 2 blows per 100mm</t>
+  </si>
+  <si>
+    <t>3fe36b72-c1c3-538d-959b-e45ea6bc8401</t>
+  </si>
+  <si>
+    <t>Verifying Document - test results</t>
+  </si>
+  <si>
+    <t>ed36a9ca-a1bc-528e-aa48-9e7e4a9ae34d</t>
+  </si>
+  <si>
+    <t>Frequency - During installation, per 20m</t>
+  </si>
+  <si>
+    <t>44ef94b6-f5d4-554e-bbf4-5b0310580a0f</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual, On site test</t>
+  </si>
+  <si>
+    <t>d4f55b18-cbcd-5461-aa31-b605fd390874</t>
+  </si>
+  <si>
+    <t>bedcb70b-88f8-579c-8759-7988b37c23f7</t>
+  </si>
+  <si>
+    <t>4.4 - Install Pipe</t>
+  </si>
+  <si>
+    <t>01774be6-7dc1-5c81-b86a-e4bf082451e0</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Pipe installed to grade as per drawing C4200</t>
+  </si>
+  <si>
+    <t>e3885ae4-8036-572c-abc6-f8802c2bd193</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pipe not damaged during installation</t>
+  </si>
+  <si>
+    <t>794e737a-2ee8-5ac6-b649-813a5ceab51b</t>
+  </si>
+  <si>
+    <t>○ Pipe installed to grade within tolerances specification GP 3.1.8</t>
+  </si>
+  <si>
+    <t>005e0fb5-bc55-5c1d-9353-eb2af465a1d4</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photos, Grade check sheet, Survey of position for asbuilt</t>
+  </si>
+  <si>
+    <t>5f6b8ad9-7595-5489-b523-045227f15a4a</t>
+  </si>
+  <si>
+    <t>Frequency - During installation</t>
+  </si>
+  <si>
+    <t>0fb163fd-01ae-5e8c-838f-52ef56dbdb84</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual, instrumental</t>
+  </si>
+  <si>
+    <t>be2be8c5-4579-5558-b01e-23e65b49783d</t>
+  </si>
+  <si>
+    <t>218d0fd8-0a90-5908-b041-ef93fb4df668</t>
+  </si>
+  <si>
+    <t>4.5 - Embedment zone</t>
+  </si>
+  <si>
+    <t>635df6bc-2169-5075-9217-3ee8d00a7d28</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Embedment material shall be AP20 or approved by the Engineer in writing</t>
+  </si>
+  <si>
+    <t>bbd42304-d1c1-5a05-bd03-efb6f7749b8a</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - min 100mm bedding</t>
+  </si>
+  <si>
+    <t>9e8031c2-4766-5977-a396-fead57d2b48a</t>
+  </si>
+  <si>
+    <t>○ 150mm overlay</t>
+  </si>
+  <si>
+    <t>d8b9e474-727f-5ee5-8691-0bb3131de80c</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photos</t>
+  </si>
+  <si>
+    <t>2696b515-34d1-5d3e-be54-4061b38c961f</t>
+  </si>
+  <si>
+    <t>3259ebe2-d38a-531c-824a-f1f258940d2d</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual, measurement check</t>
+  </si>
+  <si>
+    <t>18dbfcc2-4a89-541f-9ea3-9e611a4e10c3</t>
+  </si>
+  <si>
+    <t>de3b6d4a-fa11-5e69-9ce7-aae5376e159d</t>
+  </si>
+  <si>
+    <t>4.6 - Bacfill and Compact</t>
+  </si>
+  <si>
+    <t>5acfd24f-c4b3-5a56-8afa-017a6cd382ce</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Backfill in 200mm layers of compacted material</t>
+  </si>
+  <si>
+    <t>96405d46-6e1a-5c33-86d3-d93a5fbd2dde</t>
+  </si>
+  <si>
+    <t>○ Compaction testing one test every two layers as required</t>
+  </si>
+  <si>
+    <t>58f08d5f-b76a-5af5-947b-54470eef25ce</t>
+  </si>
+  <si>
+    <t>○ Conductive signal strip to be laid at 300mm above pipe</t>
+  </si>
+  <si>
+    <t>3f878185-066f-5194-88ab-ea20381b2f1d</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - 95% MDD in roads, paths, and pavements</t>
+  </si>
+  <si>
+    <t>1825faef-0a26-55b7-83b1-c69af9b159fa</t>
+  </si>
+  <si>
+    <t>Verifying Document - Photos, Compaction test results</t>
+  </si>
+  <si>
+    <t>7dc98ecd-1581-5e8f-b7a3-4a0ab66d8a18</t>
+  </si>
+  <si>
+    <t>Frequency - During Installation, compaction testing per 50m of pipeline or per straight section of pipeline</t>
+  </si>
+  <si>
+    <t>65acd8ea-4631-5acb-814d-cd26fd5fc915</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual, On Site test</t>
+  </si>
+  <si>
+    <t>75a8bf67-1ef5-5ac7-87d7-505aacc93b2c</t>
+  </si>
+  <si>
+    <t>6de8bec6-504c-512a-a402-c398fbe2f3d5</t>
+  </si>
+  <si>
+    <t>4.7 - Reinstatement - 326 Floor</t>
+  </si>
+  <si>
+    <t>a295dbdf-f5c5-57b8-abad-47ad06c1750e</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - DPM inplace</t>
+  </si>
+  <si>
+    <t>2862edf5-2db4-5161-af16-02037e63d3db</t>
+  </si>
+  <si>
+    <t>○ HD12 @ 250 ctrs, 600mm lond embedded 150mm.</t>
+  </si>
+  <si>
+    <t>c2eae84e-cf7f-5573-8188-e05f9036bd2d</t>
+  </si>
+  <si>
+    <t>○ Place SE72 mesh</t>
+  </si>
+  <si>
+    <t>f4e8f871-6d7d-53b6-a386-2d5612c2f3c7</t>
+  </si>
+  <si>
+    <t>○ Follow detail 33 at change in floor level.</t>
+  </si>
+  <si>
+    <t>22232a40-5b53-5031-ac17-40d2adb1b3b9</t>
+  </si>
+  <si>
+    <t>○ Pour 25mPa concrete</t>
+  </si>
+  <si>
+    <t>9f996c43-d9ed-5476-aec3-28a5f18fc222</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - steel installed and poured in accordance with drawings.</t>
+  </si>
+  <si>
+    <t>8d82f5f5-502e-5569-8d79-4215f13f4ff7</t>
+  </si>
+  <si>
+    <t>Verifying Document - Site Report</t>
+  </si>
+  <si>
+    <t>33f9463a-4f3b-5e6e-80a4-b963d1b77ebe</t>
+  </si>
+  <si>
+    <t>Frequency - During installation, prior to pours.</t>
+  </si>
+  <si>
+    <t>0068c42a-cd0b-5797-9f6f-913d15857ba0</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Engineers Inspection</t>
+  </si>
+  <si>
+    <t>c4c14247-943a-507e-93e2-f142ac5ebfb6</t>
+  </si>
+  <si>
+    <t>Inspection: Key - H, I</t>
+  </si>
+  <si>
+    <t>822b3fbc-b64b-5a0a-a620-cdccfad0ecd9</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - CR/PE</t>
+  </si>
+  <si>
+    <t>4.8 - Reinstatement - Carrigeway</t>
+  </si>
+  <si>
+    <t>0454e4f3-a6bb-5eb3-9cb1-6e32d01bc76f</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Match existing pavement thickness or minimum of 35mm.</t>
+  </si>
+  <si>
+    <t>c0997346-9187-573d-98ed-e1c17c1580c9</t>
+  </si>
+  <si>
+    <t>○ Minimum depth of 250mm 28 day strength 20MPa concrete, R20 steel installed at 500mm ctrs, 250mm embedment and 250mm into excavation, placement of 665 steel mesh, coarse broom finish.</t>
+  </si>
+  <si>
+    <t>7c216b16-68dd-5c02-a321-088a00852a2d</t>
+  </si>
+  <si>
+    <t>○ Place a tack coat.</t>
+  </si>
+  <si>
+    <t>3332c608-fba8-53cb-a423-037a4ca8317c</t>
+  </si>
+  <si>
+    <t>○ Mix to be NZTA M/10: AC10</t>
+  </si>
+  <si>
+    <t>744b5eba-aa8f-510b-b0fd-80b16b6768a1</t>
+  </si>
+  <si>
+    <t>○ Bandage seal</t>
+  </si>
+  <si>
+    <t>4cdf20e6-b003-59ac-8683-ba9e7b3d1bf7</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Asphalt installed as per the design</t>
+  </si>
+  <si>
+    <t>0c1f3c53-d3b5-5ff5-978a-d5065bb3b9fc</t>
+  </si>
+  <si>
+    <t>53de95be-dab4-537e-a393-20ce3940355b</t>
+  </si>
+  <si>
+    <t>af25c8b2-f749-5ffe-b391-8ffab5b24bc7</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual, Prepour inspection</t>
+  </si>
+  <si>
+    <t>3c14fdf9-2906-5c67-afe6-32783e8036b9</t>
+  </si>
+  <si>
+    <t>e8b6dcb4-5bf8-5288-920b-6062fdbb08d8</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - PE/SP/QE</t>
+  </si>
+  <si>
+    <t>4.9 - Reinstatement - Footpath</t>
+  </si>
+  <si>
+    <t>e46bfda0-573f-59d7-9f54-3f76e1407163</t>
+  </si>
+  <si>
+    <t>aed541f3-beb1-514b-ac45-2eba1cc022b6</t>
+  </si>
+  <si>
+    <t>○ Minimum 75mm of basecourse.</t>
+  </si>
+  <si>
+    <t>89ebab7e-6bf4-5912-bfb3-99dec716524d</t>
+  </si>
+  <si>
+    <t>○ Place a tack coat of 0.2-0.5 L/m².</t>
+  </si>
+  <si>
+    <t>42bdc910-cb80-5177-91c9-19e8efeb9c4d</t>
+  </si>
+  <si>
+    <t>○ Mix to be DG7 Asphaltic Concrete.</t>
+  </si>
+  <si>
+    <t>233f666c-b13f-59a5-a883-0605d8cc8c35</t>
+  </si>
+  <si>
+    <t>○ Bandage Seal</t>
+  </si>
+  <si>
+    <t>b5f27022-def1-5231-95d0-b1b3a0745b0e</t>
+  </si>
+  <si>
+    <t>7fd12387-8500-582e-a978-7d3a98730a27</t>
+  </si>
+  <si>
+    <t>fa269829-0213-5669-8d90-62127574b592</t>
+  </si>
+  <si>
+    <t>263b5951-6e65-50e3-9ee0-d7e84ddb5191</t>
+  </si>
+  <si>
+    <t>10b1e1a7-e5f2-59cb-976e-370d244b5a26</t>
+  </si>
+  <si>
+    <t>78fdc4df-2e7e-5266-9410-1dbef20daf8c</t>
+  </si>
+  <si>
+    <t>4.10 - Reinstatement - Kerb and Channel</t>
+  </si>
+  <si>
+    <t>d3db036a-414d-56f3-8190-bb94063c88d3</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Length a minimum of 1m.</t>
+  </si>
+  <si>
+    <t>7e58fa5a-faf9-5efb-808a-8e6266749f04</t>
+  </si>
+  <si>
+    <t>○ Match existing grade.</t>
+  </si>
+  <si>
+    <t>79702115-329c-5bf1-9ba0-facd94d56812</t>
+  </si>
+  <si>
+    <t>○ Concrete strength 20MPa</t>
+  </si>
+  <si>
+    <t>1cb2de81-0dec-5ae3-8eb4-769672088b54</t>
+  </si>
+  <si>
+    <t>○ Vertical joints at 3m intervals.</t>
+  </si>
+  <si>
+    <t>12625a68-117b-504a-8fc1-261376625ee4</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Tolerances for kerb and channel and paving edge beam shall be +5mm vertically and E16+3mm horizontally. The deviation from a 4m straight edge shall not exceed 3mm</t>
+  </si>
+  <si>
+    <t>49efb441-9535-5cf3-b040-30f18d30c0e1</t>
+  </si>
+  <si>
+    <t>0344cfad-cbc9-5e0d-96b3-ab1db9c4a5c0</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Visual, Pre Pour inspection</t>
+  </si>
+  <si>
+    <t>31e27d77-405e-575e-82cf-76c58adad59c</t>
+  </si>
+  <si>
+    <t>b8196527-75df-56e0-a1a1-b055de6ac206</t>
+  </si>
+  <si>
+    <t>SECTION 5 - FINAL INSPECTION AND HANDOVER</t>
+  </si>
+  <si>
+    <t>5.1 - CCTV</t>
+  </si>
+  <si>
+    <t>626aa881-27ba-59a2-82b1-9365e8b3f93c</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - CCTV inspection to confirm pipeline conforms with specification</t>
+  </si>
+  <si>
+    <t>56d851cd-d52e-5b44-9782-c820003a2728</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pipeline will fail is any of the following is visible:</t>
+  </si>
+  <si>
+    <t>d62af583-43b3-5825-88a9-9e19923c3f2f</t>
+  </si>
+  <si>
+    <t>○ Pipe misalignment or deformation more than 5% of the pipe diameter</t>
+  </si>
+  <si>
+    <t>9c38fdfb-3666-52f4-87a9-9724124be89f</t>
+  </si>
+  <si>
+    <t>○ Dips or ponding of water inside the pipe</t>
+  </si>
+  <si>
+    <t>1575af2c-bf99-564a-b95a-643631d0d42d</t>
+  </si>
+  <si>
+    <t>○ Defects such as open joints, potruding laterals, cracked barrels, or similar</t>
+  </si>
+  <si>
+    <t>b2ac9c90-0f8d-544c-9b2a-1cf6e61120b8</t>
+  </si>
+  <si>
+    <t>Verifying Document - Test Records, CCTV footage</t>
+  </si>
+  <si>
+    <t>1fc07a43-648f-5765-bb1a-fbb32620c000</t>
+  </si>
+  <si>
+    <t>Frequency - Every section of pipe completed</t>
+  </si>
+  <si>
+    <t>d4ffe9d1-9cc4-5358-bb32-940fc63a731f</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - On-Site Test</t>
+  </si>
+  <si>
+    <t>670e48e7-7035-584d-a4b7-539ce0478048</t>
+  </si>
+  <si>
+    <t>a74729c6-6813-560c-a502-dda72f882b23</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - SP/QE/CM/CR</t>
+  </si>
+  <si>
+    <t>5.2 - Leak Testing</t>
+  </si>
+  <si>
+    <t>d6681634-7294-527f-8e31-05ec4baf8649</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Tested in the presence of the Engineer or their representative testing in accordance with AS/NZS 2566.2 Section 6.4</t>
+  </si>
+  <si>
+    <t>3b8806c2-3ac1-5058-a26c-02271ab79ba5</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Engineer Approval</t>
+  </si>
+  <si>
+    <t>fc9740a0-2050-5c5f-9784-b07cd6cd5e42</t>
+  </si>
+  <si>
+    <t>Verifying Document - Test Records</t>
+  </si>
+  <si>
+    <t>5db85558-8b9d-57d0-a926-b7bc5887cb60</t>
+  </si>
+  <si>
+    <t>Frequency - Every section of pipe installed</t>
+  </si>
+  <si>
+    <t>147407a2-a6a2-5132-8b77-2855588ff1ac</t>
+  </si>
+  <si>
+    <t>bc0bfb46-5276-528d-89cb-6ee202faf965</t>
+  </si>
+  <si>
+    <t>f8fad0e0-8e0e-5707-b7a5-654fe9bc88cb</t>
+  </si>
+  <si>
+    <t>5.3 - Red pen markups</t>
+  </si>
+  <si>
+    <t>b7859528-d948-54ce-aeb9-29d8eb672c80</t>
+  </si>
+  <si>
+    <t>Inspection Point: Quality Control Activity - Complete mark up of any changes from supplied drawings</t>
+  </si>
+  <si>
+    <t>bc228714-ca29-537f-9188-731a14e8f7ca</t>
+  </si>
+  <si>
+    <t>Frequency - After completion of pipe section</t>
+  </si>
+  <si>
+    <t>293a5856-2300-56e3-afef-d9469d25f14f</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) -</t>
+  </si>
+  <si>
+    <t>f5f0fc6a-51b8-581e-a72d-7f77e4e2bd84</t>
+  </si>
+  <si>
+    <t>5.4 - As built</t>
+  </si>
+  <si>
+    <t>a080f463-13fb-547e-ab99-95e877eb407a</t>
+  </si>
+  <si>
+    <t>7629ddab-d5e6-5881-8c26-f38602705d7b</t>
+  </si>
+  <si>
+    <t>Verifying Document - QA records</t>
+  </si>
+  <si>
+    <t>7a7d1b44-0f34-5b2c-85bb-636589345f36</t>
+  </si>
+  <si>
+    <t>Frequency - at completion</t>
+  </si>
+  <si>
+    <t>179452ed-7c4b-5bca-bf88-28a26a8892d8</t>
+  </si>
+  <si>
+    <t>Inspection Type (Visual, other) - Asbuilt drawings</t>
+  </si>
+  <si>
+    <t>3ff4bf4d-396e-5457-af8d-359b6a03b7fc</t>
+  </si>
+  <si>
+    <t>a7da4251-21b4-57ce-b991-01fb006cb615</t>
+  </si>
+  <si>
+    <t>Inspection: By (Role Key) - PE/PM/SV</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Pipes shall be DN750 Class 4 RCRRJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +968,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +1160,22 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4CC82"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5D5E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -524,8 +1337,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,18 +1721,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="159" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="176.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" customWidth="1"/>
+    <col min="5" max="5" width="43" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,6 +1761,1744 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5"/>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="5"/>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="5"/>
+      <c r="B140" t="s">
+        <v>48</v>
+      </c>
+      <c r="C140" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="5"/>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B147" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="5"/>
+      <c r="B149" t="s">
+        <v>48</v>
+      </c>
+      <c r="C149" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="5"/>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B153" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="5"/>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B159" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B161" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5"/>
+      <c r="B162" t="s">
+        <v>48</v>
+      </c>
+      <c r="C162" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
